--- a/biology/Médecine/Actovegin/Actovegin.xlsx
+++ b/biology/Médecine/Actovegin/Actovegin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actovegin est la marque d'un médicament produit par le laboratoire norvégien Nycomed. 
 </t>
@@ -511,9 +523,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'actovegin est composé d'extraits de sang de veau déproténéisé commercialisé sous le forme de gélules, gel ou ampoules[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'actovegin est composé d'extraits de sang de veau déproténéisé commercialisé sous le forme de gélules, gel ou ampoules.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'activegin permet d'améliorer la circulation sanguine, traiter les insuffisances artérielles, ou dynamiser la cicatrisation de blessures musculaires[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activegin permet d'améliorer la circulation sanguine, traiter les insuffisances artérielles, ou dynamiser la cicatrisation de blessures musculaires.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'agence mondiale antidopage ne condamne pas l'utilisation de l'Actovegin, sauf en cas d'administration par intra-veineuse[2]
-En France, son utilisation est interdite depuis 1992. Durant l'Euro 2008, un scandale de dopage à l'Actovegin impliquant plusieurs joueurs de l'équipe de France de football a éclaté[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'agence mondiale antidopage ne condamne pas l'utilisation de l'Actovegin, sauf en cas d'administration par intra-veineuse
+En France, son utilisation est interdite depuis 1992. Durant l'Euro 2008, un scandale de dopage à l'Actovegin impliquant plusieurs joueurs de l'équipe de France de football a éclaté.
 </t>
         </is>
       </c>
